--- a/xlsx/Lexus_intext.xlsx
+++ b/xlsx/Lexus_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>Lexus</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_Lexus</t>
+    <t>创办人</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_Lexus</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%9F%A5%E7%B8%A3</t>
   </si>
   <si>
-    <t>愛知縣</t>
+    <t>爱知县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%8D%8E%E8%BD%A6</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>豐田汽車</t>
+    <t>丰田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>豐田集團</t>
+    <t>丰田集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%8F%AF%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>豪華汽車</t>
+    <t>豪华汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/L</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97RX</t>
@@ -149,19 +149,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Supra</t>
   </si>
   <si>
-    <t>豐田Supra</t>
+    <t>丰田Supra</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2GT-R</t>
   </si>
   <si>
-    <t>日產GT-R</t>
+    <t>日产GT-R</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A2%E4%BE%88%E5%93%81</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0%E6%B2%BB%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2</t>
   </si>
   <si>
-    <t>日產</t>
+    <t>日产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Infiniti</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94</t>
   </si>
   <si>
-    <t>馬自達</t>
+    <t>马自达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%B1%BD%E8%BD%A6%E5%B7%A5%E4%B8%9A%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -233,13 +230,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Camry</t>
   </si>
   <si>
-    <t>豐田Camry</t>
+    <t>丰田Camry</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97ES</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%A4%96%E7%B7%9A</t>
   </si>
   <si>
-    <t>紅外線</t>
+    <t>红外线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97GS</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%9B%BB%E8%A4%87%E5%90%88%E5%8B%95%E5%8A%9B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>油電複合動力系統</t>
+    <t>油电复合动力系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97IS</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9</t>
@@ -371,19 +368,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%96%A9%E6%96%AFHS</t>
   </si>
   <si>
-    <t>雷克薩斯HS</t>
+    <t>雷克萨斯HS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%9F%8F%E6%9E%97%E8%B3%BD%E9%81%93</t>
   </si>
   <si>
-    <t>紐柏林賽道</t>
+    <t>纽柏林赛道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97LFA</t>
@@ -407,19 +404,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0</t>
   </si>
   <si>
-    <t>豐田</t>
+    <t>丰田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%A1%9E%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0</t>
@@ -443,25 +440,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E7%B8%A3</t>
   </si>
   <si>
-    <t>靜岡縣</t>
+    <t>静冈县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E8%B3%BD%E8%BB%8A%E5%A0%B4</t>
   </si>
   <si>
-    <t>富士賽車場</t>
+    <t>富士赛车场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A1%E5%8F%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>御台場</t>
+    <t>御台场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%80%9F%E5%B7%A1%E8%88%AA</t>
@@ -503,25 +500,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%8B%9C</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>自動變速器</t>
+    <t>自动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%81%93</t>
@@ -545,25 +542,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%87%B4%E7%99%BC%E5%85%89</t>
   </si>
   <si>
-    <t>電致發光</t>
+    <t>电致发光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%85%89%E4%BA%8C%E6%A5%B5%E7%AE%A1</t>
   </si>
   <si>
-    <t>發光二極管</t>
+    <t>发光二极管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%8F%AF%E5%88%A9%E5%B1%B1</t>
   </si>
   <si>
-    <t>比華利山</t>
+    <t>比华利山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E4%BA%9E%E5%AF%86</t>
   </si>
   <si>
-    <t>邁亞密</t>
+    <t>迈亚密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%97%E5%98%89%E9%85%92%E5%BA%97</t>
   </si>
   <si>
-    <t>麗嘉酒店</t>
+    <t>丽嘉酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E7%96%AF%E7%8B%82%E6%B1%BD%E8%BD%A6%E7%A7%80</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%96%A9%E6%96%AFRC</t>
   </si>
   <si>
-    <t>雷克薩斯RC</t>
+    <t>雷克萨斯RC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E7%9C%81</t>
@@ -635,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
+    <t>一级方程式赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>香港行政長官</t>
+    <t>香港行政长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E8%8A%AC%C2%B7%E6%96%AF%E7%9A%AE%E5%B0%94%E4%BC%AF%E6%A0%BC</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>戴爾電腦</t>
+    <t>戴尔电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E4%BC%8A%C2%B7%E8%8E%B1%E8%AF%BA</t>
@@ -683,13 +680,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%A6%AC%E6%96%AF%C2%B7%E4%BD%9B%E9%87%8C%E6%9B%BC</t>
   </si>
   <si>
-    <t>湯馬斯·佛里曼</t>
+    <t>汤马斯·佛里曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%96%AF%E6%B1%80%C2%B7%E9%9C%8D%E5%A4%AB%E6%9B%BC</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9B%E5%AE%89%C2%B7%E5%9F%BA%E9%A0%93</t>
   </si>
   <si>
-    <t>黛安·基頓</t>
+    <t>黛安·基顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%88%A9%C2%B7%E4%BA%A8%E7%89%B9</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>時代 (雜誌)</t>
+    <t>时代 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Associated_Press</t>
@@ -767,9 +764,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>丰田汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%80%E8%83%8C%E8%BD%A6</t>
   </si>
   <si>
@@ -785,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%9E%E7%AF%B7%E8%BD%A6</t>
@@ -1804,7 +1798,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G22" t="n">
         <v>44</v>
@@ -1830,10 +1824,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1859,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1888,10 +1882,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1917,10 +1911,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1946,10 +1940,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1975,10 +1969,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2004,10 +1998,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2033,10 +2027,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2062,10 +2056,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2091,10 +2085,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2120,10 +2114,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2149,10 +2143,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2178,10 +2172,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2207,10 +2201,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2236,10 +2230,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2265,10 +2259,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -2323,10 +2317,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>7</v>
@@ -2352,10 +2346,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2381,10 +2375,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2410,10 +2404,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2439,10 +2433,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2468,10 +2462,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -2497,10 +2491,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>18</v>
@@ -2526,10 +2520,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2555,10 +2549,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -2584,10 +2578,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -2613,10 +2607,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2642,10 +2636,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" t="s">
         <v>85</v>
-      </c>
-      <c r="F51" t="s">
-        <v>86</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -2671,10 +2665,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2729,10 +2723,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>13</v>
@@ -2787,10 +2781,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
         <v>101</v>
-      </c>
-      <c r="F56" t="s">
-        <v>102</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -2816,10 +2810,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" t="s">
         <v>103</v>
-      </c>
-      <c r="F57" t="s">
-        <v>104</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2845,10 +2839,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
         <v>105</v>
-      </c>
-      <c r="F58" t="s">
-        <v>106</v>
       </c>
       <c r="G58" t="n">
         <v>7</v>
@@ -2874,10 +2868,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
         <v>105</v>
-      </c>
-      <c r="F59" t="s">
-        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>71</v>
@@ -2903,10 +2897,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
         <v>85</v>
-      </c>
-      <c r="F60" t="s">
-        <v>86</v>
       </c>
       <c r="G60" t="n">
         <v>37</v>
@@ -2932,10 +2926,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" t="s">
         <v>99</v>
-      </c>
-      <c r="F61" t="s">
-        <v>100</v>
       </c>
       <c r="G61" t="n">
         <v>63</v>
@@ -2990,10 +2984,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" t="s">
         <v>107</v>
-      </c>
-      <c r="F63" t="s">
-        <v>108</v>
       </c>
       <c r="G63" t="n">
         <v>7</v>
@@ -3048,10 +3042,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" t="s">
         <v>109</v>
-      </c>
-      <c r="F65" t="s">
-        <v>110</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3077,10 +3071,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" t="s">
         <v>111</v>
-      </c>
-      <c r="F66" t="s">
-        <v>112</v>
       </c>
       <c r="G66" t="n">
         <v>16</v>
@@ -3106,10 +3100,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" t="s">
         <v>113</v>
-      </c>
-      <c r="F67" t="s">
-        <v>114</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3135,10 +3129,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" t="s">
         <v>115</v>
-      </c>
-      <c r="F68" t="s">
-        <v>116</v>
       </c>
       <c r="G68" t="n">
         <v>6</v>
@@ -3164,10 +3158,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" t="s">
         <v>117</v>
-      </c>
-      <c r="F69" t="s">
-        <v>118</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3193,10 +3187,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
         <v>119</v>
-      </c>
-      <c r="F70" t="s">
-        <v>120</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3222,10 +3216,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" t="s">
         <v>105</v>
-      </c>
-      <c r="F71" t="s">
-        <v>106</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -3251,10 +3245,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" t="s">
         <v>99</v>
-      </c>
-      <c r="F72" t="s">
-        <v>100</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3280,10 +3274,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" t="s">
         <v>121</v>
-      </c>
-      <c r="F73" t="s">
-        <v>122</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3309,10 +3303,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" t="s">
         <v>123</v>
-      </c>
-      <c r="F74" t="s">
-        <v>124</v>
       </c>
       <c r="G74" t="n">
         <v>8</v>
@@ -3338,10 +3332,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" t="s">
         <v>125</v>
-      </c>
-      <c r="F75" t="s">
-        <v>126</v>
       </c>
       <c r="G75" t="n">
         <v>8</v>
@@ -3367,10 +3361,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" t="s">
         <v>127</v>
-      </c>
-      <c r="F76" t="s">
-        <v>128</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3396,10 +3390,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" t="s">
         <v>129</v>
-      </c>
-      <c r="F77" t="s">
-        <v>130</v>
       </c>
       <c r="G77" t="n">
         <v>28</v>
@@ -3425,10 +3419,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" t="s">
         <v>131</v>
-      </c>
-      <c r="F78" t="s">
-        <v>132</v>
       </c>
       <c r="G78" t="n">
         <v>62</v>
@@ -3454,10 +3448,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" t="s">
         <v>133</v>
-      </c>
-      <c r="F79" t="s">
-        <v>134</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3483,10 +3477,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" t="s">
         <v>135</v>
-      </c>
-      <c r="F80" t="s">
-        <v>136</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -3512,10 +3506,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
         <v>137</v>
-      </c>
-      <c r="F81" t="s">
-        <v>138</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3541,10 +3535,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" t="s">
         <v>139</v>
-      </c>
-      <c r="F82" t="s">
-        <v>140</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3570,10 +3564,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" t="s">
         <v>141</v>
-      </c>
-      <c r="F83" t="s">
-        <v>142</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3599,10 +3593,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>142</v>
+      </c>
+      <c r="F84" t="s">
         <v>143</v>
-      </c>
-      <c r="F84" t="s">
-        <v>144</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3628,10 +3622,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" t="s">
         <v>145</v>
-      </c>
-      <c r="F85" t="s">
-        <v>146</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3657,10 +3651,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" t="s">
         <v>147</v>
-      </c>
-      <c r="F86" t="s">
-        <v>148</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3686,10 +3680,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" t="s">
         <v>149</v>
-      </c>
-      <c r="F87" t="s">
-        <v>150</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3715,10 +3709,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" t="s">
         <v>105</v>
-      </c>
-      <c r="F88" t="s">
-        <v>106</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -3744,10 +3738,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>150</v>
+      </c>
+      <c r="F89" t="s">
         <v>151</v>
-      </c>
-      <c r="F89" t="s">
-        <v>152</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3773,10 +3767,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" t="s">
         <v>153</v>
-      </c>
-      <c r="F90" t="s">
-        <v>154</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3802,10 +3796,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>98</v>
+      </c>
+      <c r="F91" t="s">
         <v>99</v>
-      </c>
-      <c r="F91" t="s">
-        <v>100</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -3831,10 +3825,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92" t="s">
         <v>155</v>
-      </c>
-      <c r="F92" t="s">
-        <v>156</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3860,10 +3854,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>156</v>
+      </c>
+      <c r="F93" t="s">
         <v>157</v>
-      </c>
-      <c r="F93" t="s">
-        <v>158</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3889,10 +3883,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>158</v>
+      </c>
+      <c r="F94" t="s">
         <v>159</v>
-      </c>
-      <c r="F94" t="s">
-        <v>160</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3918,10 +3912,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F95" t="s">
         <v>161</v>
-      </c>
-      <c r="F95" t="s">
-        <v>162</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3947,10 +3941,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" t="s">
         <v>163</v>
-      </c>
-      <c r="F96" t="s">
-        <v>164</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -3976,10 +3970,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" t="s">
         <v>165</v>
-      </c>
-      <c r="F97" t="s">
-        <v>166</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4005,10 +3999,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>166</v>
+      </c>
+      <c r="F98" t="s">
         <v>167</v>
-      </c>
-      <c r="F98" t="s">
-        <v>168</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -4034,10 +4028,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>168</v>
+      </c>
+      <c r="F99" t="s">
         <v>169</v>
-      </c>
-      <c r="F99" t="s">
-        <v>170</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4063,10 +4057,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" t="s">
         <v>171</v>
-      </c>
-      <c r="F100" t="s">
-        <v>172</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4092,10 +4086,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101" t="s">
         <v>173</v>
-      </c>
-      <c r="F101" t="s">
-        <v>174</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4121,10 +4115,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>174</v>
+      </c>
+      <c r="F102" t="s">
         <v>175</v>
-      </c>
-      <c r="F102" t="s">
-        <v>176</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4150,10 +4144,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" t="s">
         <v>177</v>
-      </c>
-      <c r="F103" t="s">
-        <v>178</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4179,10 +4173,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>178</v>
+      </c>
+      <c r="F104" t="s">
         <v>179</v>
-      </c>
-      <c r="F104" t="s">
-        <v>180</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4208,10 +4202,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" t="s">
         <v>181</v>
-      </c>
-      <c r="F105" t="s">
-        <v>182</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4237,10 +4231,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>182</v>
+      </c>
+      <c r="F106" t="s">
         <v>183</v>
-      </c>
-      <c r="F106" t="s">
-        <v>184</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4266,10 +4260,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" t="s">
         <v>185</v>
-      </c>
-      <c r="F107" t="s">
-        <v>186</v>
       </c>
       <c r="G107" t="n">
         <v>5</v>
@@ -4295,10 +4289,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>186</v>
+      </c>
+      <c r="F108" t="s">
         <v>187</v>
-      </c>
-      <c r="F108" t="s">
-        <v>188</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4324,10 +4318,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>188</v>
+      </c>
+      <c r="F109" t="s">
         <v>189</v>
-      </c>
-      <c r="F109" t="s">
-        <v>190</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4353,10 +4347,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>190</v>
+      </c>
+      <c r="F110" t="s">
         <v>191</v>
-      </c>
-      <c r="F110" t="s">
-        <v>192</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4382,10 +4376,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>192</v>
+      </c>
+      <c r="F111" t="s">
         <v>193</v>
-      </c>
-      <c r="F111" t="s">
-        <v>194</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4411,10 +4405,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>194</v>
+      </c>
+      <c r="F112" t="s">
         <v>195</v>
-      </c>
-      <c r="F112" t="s">
-        <v>196</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -4440,10 +4434,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>196</v>
+      </c>
+      <c r="F113" t="s">
         <v>197</v>
-      </c>
-      <c r="F113" t="s">
-        <v>198</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -4469,10 +4463,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>198</v>
+      </c>
+      <c r="F114" t="s">
         <v>199</v>
-      </c>
-      <c r="F114" t="s">
-        <v>200</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4498,10 +4492,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>98</v>
+      </c>
+      <c r="F115" t="s">
         <v>99</v>
-      </c>
-      <c r="F115" t="s">
-        <v>100</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -4527,10 +4521,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" t="s">
         <v>105</v>
-      </c>
-      <c r="F116" t="s">
-        <v>106</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -4556,10 +4550,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>200</v>
+      </c>
+      <c r="F117" t="s">
         <v>201</v>
-      </c>
-      <c r="F117" t="s">
-        <v>202</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4585,10 +4579,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>202</v>
+      </c>
+      <c r="F118" t="s">
         <v>203</v>
-      </c>
-      <c r="F118" t="s">
-        <v>204</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4614,10 +4608,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>204</v>
+      </c>
+      <c r="F119" t="s">
         <v>205</v>
-      </c>
-      <c r="F119" t="s">
-        <v>206</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4672,10 +4666,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>206</v>
+      </c>
+      <c r="F121" t="s">
         <v>207</v>
-      </c>
-      <c r="F121" t="s">
-        <v>208</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -4701,10 +4695,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" t="s">
         <v>209</v>
-      </c>
-      <c r="F122" t="s">
-        <v>210</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4730,10 +4724,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>210</v>
+      </c>
+      <c r="F123" t="s">
         <v>211</v>
-      </c>
-      <c r="F123" t="s">
-        <v>212</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4759,10 +4753,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>212</v>
+      </c>
+      <c r="F124" t="s">
         <v>213</v>
-      </c>
-      <c r="F124" t="s">
-        <v>214</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4788,10 +4782,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>214</v>
+      </c>
+      <c r="F125" t="s">
         <v>215</v>
-      </c>
-      <c r="F125" t="s">
-        <v>216</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4817,10 +4811,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" t="s">
         <v>217</v>
-      </c>
-      <c r="F126" t="s">
-        <v>218</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4846,10 +4840,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>218</v>
+      </c>
+      <c r="F127" t="s">
         <v>219</v>
-      </c>
-      <c r="F127" t="s">
-        <v>220</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4875,10 +4869,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>220</v>
+      </c>
+      <c r="F128" t="s">
         <v>221</v>
-      </c>
-      <c r="F128" t="s">
-        <v>222</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4904,10 +4898,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>222</v>
+      </c>
+      <c r="F129" t="s">
         <v>223</v>
-      </c>
-      <c r="F129" t="s">
-        <v>224</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4933,10 +4927,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>224</v>
+      </c>
+      <c r="F130" t="s">
         <v>225</v>
-      </c>
-      <c r="F130" t="s">
-        <v>226</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4962,10 +4956,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>226</v>
+      </c>
+      <c r="F131" t="s">
         <v>227</v>
-      </c>
-      <c r="F131" t="s">
-        <v>228</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4991,10 +4985,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>228</v>
+      </c>
+      <c r="F132" t="s">
         <v>229</v>
-      </c>
-      <c r="F132" t="s">
-        <v>230</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5020,10 +5014,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>230</v>
+      </c>
+      <c r="F133" t="s">
         <v>231</v>
-      </c>
-      <c r="F133" t="s">
-        <v>232</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5049,10 +5043,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>232</v>
+      </c>
+      <c r="F134" t="s">
         <v>233</v>
-      </c>
-      <c r="F134" t="s">
-        <v>234</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5078,10 +5072,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>234</v>
+      </c>
+      <c r="F135" t="s">
         <v>235</v>
-      </c>
-      <c r="F135" t="s">
-        <v>236</v>
       </c>
       <c r="G135" t="n">
         <v>7</v>
@@ -5107,10 +5101,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>236</v>
+      </c>
+      <c r="F136" t="s">
         <v>237</v>
-      </c>
-      <c r="F136" t="s">
-        <v>238</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5136,10 +5130,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>238</v>
+      </c>
+      <c r="F137" t="s">
         <v>239</v>
-      </c>
-      <c r="F137" t="s">
-        <v>240</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5165,10 +5159,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>240</v>
+      </c>
+      <c r="F138" t="s">
         <v>241</v>
-      </c>
-      <c r="F138" t="s">
-        <v>242</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5194,10 +5188,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>242</v>
+      </c>
+      <c r="F139" t="s">
         <v>243</v>
-      </c>
-      <c r="F139" t="s">
-        <v>244</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5223,10 +5217,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>244</v>
+      </c>
+      <c r="F140" t="s">
         <v>245</v>
-      </c>
-      <c r="F140" t="s">
-        <v>246</v>
       </c>
       <c r="G140" t="n">
         <v>9</v>
@@ -5252,10 +5246,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>246</v>
+      </c>
+      <c r="F141" t="s">
         <v>247</v>
-      </c>
-      <c r="F141" t="s">
-        <v>248</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -5281,10 +5275,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F142" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5310,10 +5304,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F143" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -5339,10 +5333,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F144" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5368,10 +5362,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F145" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5397,10 +5391,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F146" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G146" t="n">
         <v>7</v>
@@ -5426,10 +5420,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F147" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5455,10 +5449,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F148" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5484,10 +5478,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F149" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G149" t="n">
         <v>20</v>
@@ -5513,10 +5507,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F150" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5542,10 +5536,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F151" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G151" t="n">
         <v>6</v>
@@ -5571,10 +5565,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>265</v>
+      </c>
+      <c r="F152" t="s">
         <v>267</v>
-      </c>
-      <c r="F152" t="s">
-        <v>269</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
